--- a/webscript/usat/usat-tobacco.xlsx
+++ b/webscript/usat/usat-tobacco.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="71">
   <si>
     <t>comp_count</t>
   </si>
@@ -37,6 +37,9 @@
     <t>start_date</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>USA Today - All sources</t>
   </si>
   <si>
@@ -214,7 +217,16 @@
     <t>JUUL Labs Inc.</t>
   </si>
   <si>
+    <t>20181231</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>sc=usat and la=en and ((ecigarette sector) or (ecigarette industry) or (ecigarette-sector) or (ecigarette-industry) or (tobacco sector) or (tobacco industry) or (tobacco-sector) or (tobacco-industry))</t>
+  </si>
+  <si>
+    <t>20181001</t>
   </si>
 </sst>
 </file>
@@ -606,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>19870630</v>
@@ -618,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>19870401</v>
@@ -629,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>19870930</v>
@@ -641,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <v>19870701</v>
@@ -652,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>19871231</v>
@@ -664,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>19871001</v>
@@ -675,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>19880331</v>
@@ -687,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>19880101</v>
@@ -698,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>19880630</v>
@@ -710,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>19880401</v>
@@ -721,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>19880930</v>
@@ -733,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>19880701</v>
@@ -744,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>19881231</v>
@@ -756,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>19881001</v>
@@ -767,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>19890331</v>
@@ -779,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>19890101</v>
@@ -790,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>19890630</v>
@@ -802,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <v>19890401</v>
@@ -813,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>19890930</v>
@@ -825,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>19890701</v>
@@ -836,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>19891231</v>
@@ -848,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>19891001</v>
@@ -859,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>19900331</v>
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>19900101</v>
@@ -882,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>19900630</v>
@@ -894,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14">
         <v>19900401</v>
@@ -905,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>19900930</v>
@@ -917,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>19900701</v>
@@ -928,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>19901231</v>
@@ -940,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>19901001</v>
@@ -951,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>19910331</v>
@@ -963,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>19910101</v>
@@ -974,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>19910630</v>
@@ -986,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>19910401</v>
@@ -997,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>19910930</v>
@@ -1009,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <v>19910701</v>
@@ -1020,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>19911231</v>
@@ -1032,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>19911001</v>
@@ -1043,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>19920331</v>
@@ -1055,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G21">
         <v>19920101</v>
@@ -1066,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>19920630</v>
@@ -1078,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G22">
         <v>19920401</v>
@@ -1089,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>19920930</v>
@@ -1101,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G23">
         <v>19920701</v>
@@ -1112,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>19921231</v>
@@ -1124,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G24">
         <v>19921001</v>
@@ -1135,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>19930331</v>
@@ -1147,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>19930101</v>
@@ -1158,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>19930630</v>
@@ -1170,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G26">
         <v>19930401</v>
@@ -1181,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>19930930</v>
@@ -1193,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G27">
         <v>19930701</v>
@@ -1204,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>19931231</v>
@@ -1216,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>19931001</v>
@@ -1227,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>19940331</v>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <v>19940101</v>
@@ -1250,7 +1262,7 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>19940630</v>
@@ -1262,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G30">
         <v>19940401</v>
@@ -1273,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>19940930</v>
@@ -1285,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G31">
         <v>19940701</v>
@@ -1296,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>19941231</v>
@@ -1308,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32">
         <v>19941001</v>
@@ -1319,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>19950331</v>
@@ -1331,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G33">
         <v>19950101</v>
@@ -1342,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>19950630</v>
@@ -1354,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34">
         <v>19950401</v>
@@ -1365,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>19950930</v>
@@ -1377,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>19950701</v>
@@ -1388,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>19951231</v>
@@ -1400,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G36">
         <v>19951001</v>
@@ -1411,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>19960331</v>
@@ -1423,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G37">
         <v>19960101</v>
@@ -1434,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>19960630</v>
@@ -1446,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G38">
         <v>19960401</v>
@@ -1457,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>19960930</v>
@@ -1469,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G39">
         <v>19960701</v>
@@ -1480,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>19961231</v>
@@ -1492,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G40">
         <v>19961001</v>
@@ -1503,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>19970331</v>
@@ -1515,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <v>19970101</v>
@@ -1526,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>19970331</v>
@@ -1538,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G42">
         <v>19970101</v>
@@ -1549,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>19970331</v>
@@ -1561,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G43">
         <v>19970101</v>
@@ -1572,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>19970331</v>
@@ -1584,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G44">
         <v>19970101</v>
@@ -1595,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>19970331</v>
@@ -1607,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G45">
         <v>19970101</v>
@@ -1618,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>19970331</v>
@@ -1630,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G46">
         <v>19970101</v>
@@ -1641,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>19970331</v>
@@ -1653,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G47">
         <v>19970101</v>
@@ -1664,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>19970331</v>
@@ -1676,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G48">
         <v>19970101</v>
@@ -1687,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>19970331</v>
@@ -1699,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G49">
         <v>19970101</v>
@@ -1710,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>19970331</v>
@@ -1722,7 +1734,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G50">
         <v>19970101</v>
@@ -1733,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>19970331</v>
@@ -1745,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G51">
         <v>19970101</v>
@@ -1756,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>19970630</v>
@@ -1768,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G52">
         <v>19970401</v>
@@ -1779,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>19970630</v>
@@ -1791,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <v>19970401</v>
@@ -1802,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>19970630</v>
@@ -1814,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G54">
         <v>19970401</v>
@@ -1825,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>19970630</v>
@@ -1837,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G55">
         <v>19970401</v>
@@ -1848,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>19970630</v>
@@ -1860,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G56">
         <v>19970401</v>
@@ -1871,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>19970630</v>
@@ -1883,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G57">
         <v>19970401</v>
@@ -1894,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>19970630</v>
@@ -1906,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G58">
         <v>19970401</v>
@@ -1917,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>19970930</v>
@@ -1929,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G59">
         <v>19970701</v>
@@ -1940,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>19970930</v>
@@ -1952,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G60">
         <v>19970701</v>
@@ -1963,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>19970930</v>
@@ -1975,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G61">
         <v>19970701</v>
@@ -1986,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>19970930</v>
@@ -1998,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G62">
         <v>19970701</v>
@@ -2009,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>19970930</v>
@@ -2021,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G63">
         <v>19970701</v>
@@ -2032,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>19970930</v>
@@ -2044,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G64">
         <v>19970701</v>
@@ -2055,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>19970930</v>
@@ -2067,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G65">
         <v>19970701</v>
@@ -2078,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>19970930</v>
@@ -2090,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G66">
         <v>19970701</v>
@@ -2101,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>19970930</v>
@@ -2113,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G67">
         <v>19970701</v>
@@ -2124,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>19971231</v>
@@ -2136,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G68">
         <v>19971001</v>
@@ -2147,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>19971231</v>
@@ -2159,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G69">
         <v>19971001</v>
@@ -2170,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>19971231</v>
@@ -2182,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G70">
         <v>19971001</v>
@@ -2193,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>19971231</v>
@@ -2205,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G71">
         <v>19971001</v>
@@ -2216,7 +2228,7 @@
         <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>19980331</v>
@@ -2228,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G72">
         <v>19980101</v>
@@ -2239,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>19980630</v>
@@ -2251,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G73">
         <v>19980401</v>
@@ -2262,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C74">
         <v>19980630</v>
@@ -2274,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G74">
         <v>19980401</v>
@@ -2285,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>19980930</v>
@@ -2297,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G75">
         <v>19980701</v>
@@ -2308,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>19981231</v>
@@ -2320,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G76">
         <v>19981001</v>
@@ -2331,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>19990331</v>
@@ -2343,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G77">
         <v>19990101</v>
@@ -2354,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78">
         <v>19990630</v>
@@ -2366,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G78">
         <v>19990401</v>
@@ -2377,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79">
         <v>19990930</v>
@@ -2389,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G79">
         <v>19990701</v>
@@ -2400,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80">
         <v>19991231</v>
@@ -2412,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G80">
         <v>19991001</v>
@@ -2423,7 +2435,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>20000331</v>
@@ -2435,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G81">
         <v>20000101</v>
@@ -2446,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>20000630</v>
@@ -2458,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G82">
         <v>20000401</v>
@@ -2469,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>20000930</v>
@@ -2481,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G83">
         <v>20000701</v>
@@ -2492,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>20001231</v>
@@ -2504,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G84">
         <v>20001001</v>
@@ -2515,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>20010331</v>
@@ -2527,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G85">
         <v>20010101</v>
@@ -2538,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>20010630</v>
@@ -2550,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G86">
         <v>20010401</v>
@@ -2561,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>20010930</v>
@@ -2573,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G87">
         <v>20010701</v>
@@ -2584,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>20010930</v>
@@ -2596,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G88">
         <v>20010701</v>
@@ -2607,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>20011231</v>
@@ -2619,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G89">
         <v>20011001</v>
@@ -2630,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>20020331</v>
@@ -2642,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G90">
         <v>20020101</v>
@@ -2653,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>20020331</v>
@@ -2665,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G91">
         <v>20020101</v>
@@ -2676,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>20020331</v>
@@ -2688,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G92">
         <v>20020101</v>
@@ -2699,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>20020630</v>
@@ -2711,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G93">
         <v>20020401</v>
@@ -2722,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>20020930</v>
@@ -2734,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G94">
         <v>20020701</v>
@@ -2745,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95">
         <v>20021231</v>
@@ -2757,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G95">
         <v>20021001</v>
@@ -2768,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>20030331</v>
@@ -2780,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G96">
         <v>20030101</v>
@@ -2791,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>20030630</v>
@@ -2803,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G97">
         <v>20030401</v>
@@ -2814,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C98">
         <v>20030930</v>
@@ -2826,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G98">
         <v>20030701</v>
@@ -2837,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <v>20030930</v>
@@ -2849,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G99">
         <v>20030701</v>
@@ -2860,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>20031231</v>
@@ -2872,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G100">
         <v>20031001</v>
@@ -2883,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>20040630</v>
@@ -2895,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G101">
         <v>20040401</v>
@@ -2906,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102">
         <v>20040630</v>
@@ -2918,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G102">
         <v>20040401</v>
@@ -2929,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C103">
         <v>20040630</v>
@@ -2941,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G103">
         <v>20040401</v>
@@ -2952,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>20040930</v>
@@ -2964,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G104">
         <v>20040701</v>
@@ -2975,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C105">
         <v>20040930</v>
@@ -2987,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G105">
         <v>20040701</v>
@@ -2998,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>20041231</v>
@@ -3010,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G106">
         <v>20041001</v>
@@ -3021,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C107">
         <v>20041231</v>
@@ -3033,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G107">
         <v>20041001</v>
@@ -3044,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>20041231</v>
@@ -3056,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G108">
         <v>20041001</v>
@@ -3067,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C109">
         <v>20041231</v>
@@ -3079,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G109">
         <v>20041001</v>
@@ -3090,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110">
         <v>20041231</v>
@@ -3102,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G110">
         <v>20041001</v>
@@ -3113,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C111">
         <v>20050331</v>
@@ -3125,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G111">
         <v>20050101</v>
@@ -3136,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112">
         <v>20050630</v>
@@ -3148,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G112">
         <v>20050401</v>
@@ -3159,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113">
         <v>20050930</v>
@@ -3171,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G113">
         <v>20050701</v>
@@ -3182,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114">
         <v>20051231</v>
@@ -3194,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G114">
         <v>20051001</v>
@@ -3205,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C115">
         <v>20051231</v>
@@ -3217,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G115">
         <v>20051001</v>
@@ -3228,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116">
         <v>20060331</v>
@@ -3240,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G116">
         <v>20060101</v>
@@ -3251,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117">
         <v>20060630</v>
@@ -3263,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G117">
         <v>20060401</v>
@@ -3274,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118">
         <v>20060930</v>
@@ -3286,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G118">
         <v>20060701</v>
@@ -3297,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>20060930</v>
@@ -3309,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G119">
         <v>20060701</v>
@@ -3320,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120">
         <v>20060930</v>
@@ -3332,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G120">
         <v>20060701</v>
@@ -3343,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C121">
         <v>20060930</v>
@@ -3355,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G121">
         <v>20060701</v>
@@ -3366,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C122">
         <v>20061231</v>
@@ -3378,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G122">
         <v>20061001</v>
@@ -3389,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C123">
         <v>20061231</v>
@@ -3401,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G123">
         <v>20061001</v>
@@ -3412,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C124">
         <v>20061231</v>
@@ -3424,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G124">
         <v>20061001</v>
@@ -3435,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125">
         <v>20061231</v>
@@ -3447,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G125">
         <v>20061001</v>
@@ -3458,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C126">
         <v>20061231</v>
@@ -3470,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G126">
         <v>20061001</v>
@@ -3481,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127">
         <v>20070331</v>
@@ -3493,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G127">
         <v>20070101</v>
@@ -3504,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128">
         <v>20070630</v>
@@ -3516,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G128">
         <v>20070401</v>
@@ -3527,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>20070930</v>
@@ -3539,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G129">
         <v>20070701</v>
@@ -3550,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C130">
         <v>20070930</v>
@@ -3562,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G130">
         <v>20070701</v>
@@ -3573,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C131">
         <v>20071231</v>
@@ -3585,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G131">
         <v>20071001</v>
@@ -3596,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132">
         <v>20080331</v>
@@ -3608,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G132">
         <v>20080101</v>
@@ -3619,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133">
         <v>20080930</v>
@@ -3631,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G133">
         <v>20080701</v>
@@ -3642,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134">
         <v>20081231</v>
@@ -3654,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G134">
         <v>20081001</v>
@@ -3665,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C135">
         <v>20081231</v>
@@ -3677,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G135">
         <v>20081001</v>
@@ -3688,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C136">
         <v>20081231</v>
@@ -3700,7 +3712,7 @@
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G136">
         <v>20081001</v>
@@ -3711,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137">
         <v>20081231</v>
@@ -3723,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G137">
         <v>20081001</v>
@@ -3734,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C138">
         <v>20081231</v>
@@ -3746,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G138">
         <v>20081001</v>
@@ -3757,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139">
         <v>20081231</v>
@@ -3769,7 +3781,7 @@
         <v>6</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G139">
         <v>20081001</v>
@@ -3780,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140">
         <v>20090331</v>
@@ -3792,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G140">
         <v>20090101</v>
@@ -3803,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C141">
         <v>20090630</v>
@@ -3815,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G141">
         <v>20090401</v>
@@ -3826,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C142">
         <v>20090630</v>
@@ -3838,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G142">
         <v>20090401</v>
@@ -3849,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C143">
         <v>20090930</v>
@@ -3861,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G143">
         <v>20090701</v>
@@ -3872,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144">
         <v>20091231</v>
@@ -3884,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G144">
         <v>20091001</v>
@@ -3895,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C145">
         <v>20100331</v>
@@ -3907,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G145">
         <v>20100101</v>
@@ -3918,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C146">
         <v>20100630</v>
@@ -3930,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G146">
         <v>20100401</v>
@@ -3941,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C147">
         <v>20100630</v>
@@ -3953,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G147">
         <v>20100401</v>
@@ -3964,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148">
         <v>20100930</v>
@@ -3976,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G148">
         <v>20100701</v>
@@ -3987,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149">
         <v>20101231</v>
@@ -3999,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G149">
         <v>20101001</v>
@@ -4010,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C150">
         <v>20101231</v>
@@ -4022,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G150">
         <v>20101001</v>
@@ -4033,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151">
         <v>20110331</v>
@@ -4045,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G151">
         <v>20110101</v>
@@ -4056,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C152">
         <v>20110630</v>
@@ -4068,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G152">
         <v>20110401</v>
@@ -4079,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C153">
         <v>20110630</v>
@@ -4091,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G153">
         <v>20110401</v>
@@ -4102,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154">
         <v>20110930</v>
@@ -4114,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G154">
         <v>20110701</v>
@@ -4125,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C155">
         <v>20120331</v>
@@ -4137,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G155">
         <v>20120101</v>
@@ -4148,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C156">
         <v>20120331</v>
@@ -4160,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G156">
         <v>20120101</v>
@@ -4171,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157">
         <v>20120630</v>
@@ -4183,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G157">
         <v>20120401</v>
@@ -4194,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C158">
         <v>20120930</v>
@@ -4206,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G158">
         <v>20120701</v>
@@ -4217,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C159">
         <v>20121231</v>
@@ -4229,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G159">
         <v>20121001</v>
@@ -4240,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C160">
         <v>20121231</v>
@@ -4252,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G160">
         <v>20121001</v>
@@ -4263,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161">
         <v>20130331</v>
@@ -4275,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G161">
         <v>20130101</v>
@@ -4286,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162">
         <v>20130930</v>
@@ -4298,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G162">
         <v>20130701</v>
@@ -4309,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C163">
         <v>20140331</v>
@@ -4321,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G163">
         <v>20140101</v>
@@ -4332,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C164">
         <v>20140630</v>
@@ -4344,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G164">
         <v>20140401</v>
@@ -4355,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C165">
         <v>20140630</v>
@@ -4367,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G165">
         <v>20140401</v>
@@ -4378,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C166">
         <v>20140930</v>
@@ -4390,7 +4402,7 @@
         <v>6</v>
       </c>
       <c r="F166" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G166">
         <v>20140701</v>
@@ -4401,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C167">
         <v>20140930</v>
@@ -4413,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G167">
         <v>20140701</v>
@@ -4424,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C168">
         <v>20140930</v>
@@ -4436,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G168">
         <v>20140701</v>
@@ -4447,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C169">
         <v>20140930</v>
@@ -4459,7 +4471,7 @@
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G169">
         <v>20140701</v>
@@ -4470,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170">
         <v>20140930</v>
@@ -4482,7 +4494,7 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G170">
         <v>20140701</v>
@@ -4493,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C171">
         <v>20140930</v>
@@ -4505,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G171">
         <v>20140701</v>
@@ -4516,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C172">
         <v>20141231</v>
@@ -4528,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G172">
         <v>20141001</v>
@@ -4539,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173">
         <v>20150630</v>
@@ -4551,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G173">
         <v>20150401</v>
@@ -4562,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C174">
         <v>20150930</v>
@@ -4574,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G174">
         <v>20150701</v>
@@ -4585,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175">
         <v>20150930</v>
@@ -4597,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G175">
         <v>20150701</v>
@@ -4608,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C176">
         <v>20151231</v>
@@ -4620,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G176">
         <v>20151001</v>
@@ -4631,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177">
         <v>20160331</v>
@@ -4643,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G177">
         <v>20160101</v>
@@ -4654,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178">
         <v>20160630</v>
@@ -4666,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G178">
         <v>20160401</v>
@@ -4677,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179">
         <v>20170630</v>
@@ -4689,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G179">
         <v>20170401</v>
@@ -4700,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180">
         <v>20170930</v>
@@ -4712,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G180">
         <v>20170701</v>
@@ -4723,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C181">
         <v>20180331</v>
@@ -4735,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G181">
         <v>20180101</v>
@@ -4746,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C182">
         <v>20180331</v>
@@ -4758,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G182">
         <v>20180101</v>
@@ -4769,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183">
         <v>20180630</v>
@@ -4781,56 +4793,56 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G183">
         <v>20180401</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184">
-        <v>1</v>
+      <c r="A184" t="s">
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184">
-        <v>20181231</v>
-      </c>
-      <c r="D184">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="C184" t="s">
+        <v>67</v>
+      </c>
+      <c r="D184" t="s">
+        <v>68</v>
       </c>
       <c r="E184">
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>66</v>
-      </c>
-      <c r="G184">
-        <v>20181001</v>
+        <v>69</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185">
-        <v>1</v>
+      <c r="A185" t="s">
+        <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185">
-        <v>20181231</v>
-      </c>
-      <c r="D185">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>67</v>
+      </c>
+      <c r="D185" t="s">
+        <v>68</v>
       </c>
       <c r="E185">
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>66</v>
-      </c>
-      <c r="G185">
-        <v>20181001</v>
+        <v>69</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
